--- a/data analysis/analysis after annotation/t4 - analysis after annotation.xlsx
+++ b/data analysis/analysis after annotation/t4 - analysis after annotation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David-PC\SkyDrive\thesis report\data analysis\analysis after annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\MASc\data analysis\analysis after annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="5685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="5685" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="t4-s1" sheetId="1" r:id="rId1"/>
@@ -1715,18 +1715,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1871,17 +1871,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1909,12 +1909,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -2228,18 +2228,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2726,17 +2726,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2806,12 +2806,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -4003,13 +4003,13 @@
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4420,12 +4420,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -5137,13 +5137,13 @@
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5399,17 +5399,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -5484,12 +5484,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -6126,13 +6126,13 @@
       <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -6475,17 +6475,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6549,12 +6549,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -7253,13 +7253,13 @@
       <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7493,12 +7493,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -7533,17 +7533,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -8230,13 +8230,13 @@
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -8503,12 +8503,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -8540,17 +8540,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -8614,12 +8614,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -9322,13 +9322,13 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -9640,12 +9640,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -9680,17 +9680,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -10606,18 +10606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -10827,12 +10827,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -10858,17 +10858,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>407</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -11283,7 +11283,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
